--- a/reports/resnet18_23_no_MMTM/prediction/8/prediction_train_8.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/8/prediction_train_8.xlsx
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
